--- a/fuentes/contenidos/grado11/guion16/Escaleta_CN_11_16_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion16/Escaleta_CN_11_16_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_11_16_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -781,7 +781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +854,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -911,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -984,16 +996,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,23 +1065,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1375,9 +1405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,94 +1435,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="28" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="52"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1584,121 +1614,121 @@
       <c r="T4" s="12"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="60">
         <v>2</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
+      <c r="M5" s="61"/>
+      <c r="N5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9" t="s">
+      <c r="O5" s="59"/>
+      <c r="P5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="59">
         <v>6</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="59" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="59"/>
+      <c r="G6" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="60">
         <v>3</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8" t="s">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="59">
         <v>6</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1763,62 +1793,62 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="59"/>
+      <c r="G8" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="60">
         <v>5</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9" t="s">
+      <c r="N8" s="61"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="59">
         <v>6</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="59" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1916,62 +1946,62 @@
       <c r="T10" s="12"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="59"/>
+      <c r="G11" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="60">
         <v>7</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9" t="s">
+      <c r="N11" s="61"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="59">
         <v>6</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T11" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" s="59" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2095,62 +2125,62 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="59"/>
+      <c r="G14" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="60">
         <v>10</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8" t="s">
+      <c r="M14" s="61"/>
+      <c r="N14" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9" t="s">
+      <c r="O14" s="59"/>
+      <c r="P14" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="59">
         <v>6</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="T14" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2303,62 +2333,62 @@
       <c r="T17" s="12"/>
       <c r="U17" s="10"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="59"/>
+      <c r="G18" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="60">
         <v>13</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8" t="s">
+      <c r="M18" s="61"/>
+      <c r="N18" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9" t="s">
+      <c r="O18" s="59"/>
+      <c r="P18" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="59">
         <v>6</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="T18" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="U18" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2605,62 +2635,62 @@
       <c r="T23" s="12"/>
       <c r="U23" s="10"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="59"/>
+      <c r="G24" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="60">
         <v>17</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8" t="s">
+      <c r="M24" s="61"/>
+      <c r="N24" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9" t="s">
+      <c r="O24" s="59"/>
+      <c r="P24" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="59">
         <v>6</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="S24" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="T24" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="U24" s="10" t="s">
+      <c r="U24" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2704,8 +2734,8 @@
         <v>43</v>
       </c>
       <c r="O25" s="9"/>
-      <c r="P25" s="9" t="s">
-        <v>20</v>
+      <c r="P25" s="63" t="s">
+        <v>19</v>
       </c>
       <c r="Q25" s="10">
         <v>6</v>
@@ -2896,117 +2926,117 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="16" t="s">
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="60">
         <v>22</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8" t="s">
+      <c r="M29" s="61"/>
+      <c r="N29" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9" t="s">
+      <c r="O29" s="59"/>
+      <c r="P29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="59">
         <v>6</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="S29" s="10" t="s">
+      <c r="S29" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="T29" s="12" t="s">
+      <c r="T29" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="U29" s="10" t="s">
+      <c r="U29" s="59" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="16" t="s">
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="60">
         <v>23</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8" t="s">
+      <c r="M30" s="61"/>
+      <c r="N30" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9" t="s">
+      <c r="O30" s="59"/>
+      <c r="P30" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="59">
         <v>6</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="S30" s="10" t="s">
+      <c r="S30" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="T30" s="12" t="s">
+      <c r="T30" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="U30" s="10" t="s">
+      <c r="U30" s="59" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4637,12 +4667,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4657,6 +4681,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O7" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion16/Escaleta_CN_11_16_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion16/Escaleta_CN_11_16_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado11\guion16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,14 +19,14 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="203">
   <si>
     <t>Asignatura</t>
   </si>
@@ -407,9 +407,6 @@
     <t>Los nucleótidos</t>
   </si>
   <si>
-    <t>Los nucleósidos</t>
-  </si>
-  <si>
     <t>El ADN</t>
   </si>
   <si>
@@ -494,36 +491,18 @@
     <t>Ácidos nucleicos: fundamentos</t>
   </si>
   <si>
-    <t>¿Cuál nucleósido se forma?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para identificar los nucleósidos que se forman a partir de la bases nitrogenada y la pentosa </t>
-  </si>
-  <si>
-    <t>Recurso M1A-01</t>
-  </si>
-  <si>
     <t>Recurso M10A-01</t>
   </si>
   <si>
-    <t>Los tipos de ácidos nucleicos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secuencia de imágenes que permite explicar las unidades estructurales de los ácidos nucleicos </t>
   </si>
   <si>
-    <t>Interactivo que permite explicar las estructuras y los diferentes procesos del ADN y ARN</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
     <t>Recursos F</t>
   </si>
   <si>
-    <t>Recurso F7-01</t>
-  </si>
-  <si>
     <t>RF_01_01_CO</t>
   </si>
   <si>
@@ -548,15 +527,6 @@
     <t>Actividad que permite identificar el proceso de transcripción del ADN para la síntesis de ARNm</t>
   </si>
   <si>
-    <t>El código genético y la síntesis de proteínas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo que permite explicar la codificación de los aminoácidos (tripletes) y la síntesis de las proteínas </t>
-  </si>
-  <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
     <t>Conoce la biosíntesis de las proteínas</t>
   </si>
   <si>
@@ -575,12 +545,6 @@
     <t>Recurso M6A-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Relaciona la secuencia de aminoácidos </t>
-  </si>
-  <si>
-    <t>Recurso M9B-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Las hormonas y sus funciones </t>
   </si>
   <si>
@@ -596,15 +560,6 @@
     <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=5&amp;idpil=AN001028&amp;ruta=Buscador</t>
   </si>
   <si>
-    <t xml:space="preserve">Reconoce las glándulas endocrinas </t>
-  </si>
-  <si>
-    <t>Actividad que permite identificar las diferentes glándulas endocrinas en el cuerpo humano</t>
-  </si>
-  <si>
-    <t>Recurso M9C-01</t>
-  </si>
-  <si>
     <t>¿Cuál es su función?</t>
   </si>
   <si>
@@ -626,18 +581,12 @@
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>Recurso M11A-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fin de unidad </t>
   </si>
   <si>
     <t xml:space="preserve">Evaluación </t>
   </si>
   <si>
-    <t>Recurso M5A-01</t>
-  </si>
-  <si>
     <t>Recurso M101AP-01</t>
   </si>
   <si>
@@ -656,15 +605,6 @@
     <t>Recurso M102AB-02</t>
   </si>
   <si>
-    <t>Competencias: indagación del consumo de vitaminas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que propone una consulta de fuentes informativas del consumo de vitaminas a partir de suplementos vitamínicos </t>
-  </si>
-  <si>
-    <t>Recurso M102AB-03</t>
-  </si>
-  <si>
     <t>Banco de actividades:  Los ácidos nucleicos, las hormonas y las vitaminas</t>
   </si>
   <si>
@@ -677,36 +617,15 @@
     <t>Motor que incluye preguntas de respuesta Los ácidos nucleicos, las hormonas y las vitaminas</t>
   </si>
   <si>
-    <t>Identifica la fuente de vitaminas</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer las fuentes de vitaminas en alimentos</t>
-  </si>
-  <si>
-    <t>Recurso M3A-01</t>
-  </si>
-  <si>
-    <t>Identifica los nucleótidos y nucleósidos</t>
-  </si>
-  <si>
     <t>Recurso M5A-02</t>
   </si>
   <si>
     <t>¿Qué sabes del ADN?</t>
   </si>
   <si>
-    <t>Actividad para interpretar el código genético y determinar la secuencia de aminoácidos a partir de códigos ARNm</t>
-  </si>
-  <si>
     <t>¿Qué clase de vitamina es?</t>
   </si>
   <si>
-    <t>Actividad para afianzar los conceptos de los ácidos nucleicos, las hormonas y las vitaminas</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer los nucleótidos y los nucleósidos del ADN y ARN</t>
-  </si>
-  <si>
     <t>Actividad con animación que permite identificar el proceso de biosíntesis de las proteínas en organismos eucariotas</t>
   </si>
   <si>
@@ -717,9 +636,6 @@
   </si>
   <si>
     <t>Actividad para clasificar vitaminas de acuerdo con su solubilidad en el agua o grasas</t>
-  </si>
-  <si>
-    <t>Resuelve un crucigrama sobre ácidos nucleicos, hormonas y vitaminas</t>
   </si>
 </sst>
 </file>
@@ -781,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,12 +772,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -923,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -996,34 +906,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,23 +958,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1403,128 +1296,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U295"/>
+  <dimension ref="A1:U286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I3:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="71" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="114.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" customWidth="1"/>
+    <col min="3" max="3" width="50.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.86328125" customWidth="1"/>
+    <col min="5" max="5" width="32.86328125" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.73046875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" customWidth="1"/>
+    <col min="13" max="14" width="9.265625" customWidth="1"/>
+    <col min="15" max="15" width="37.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.53125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.9296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.1328125" customWidth="1"/>
+    <col min="19" max="19" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+    <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="28" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="37"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1540,7 +1433,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="21"/>
       <c r="G3" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -1549,7 +1442,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>20</v>
@@ -1569,19 +1462,19 @@
         <v>6</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1614,125 +1507,129 @@
       <c r="T4" s="12"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="60">
+      <c r="F5" s="9"/>
+      <c r="G5" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="32">
         <v>2</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="K5" s="61" t="s">
+      <c r="J5" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59" t="s">
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="10">
         <v>6</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S5" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="T5" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="U5" s="59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="T5" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="60">
+      <c r="E6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="32">
         <v>3</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="K6" s="61" t="s">
+      <c r="J6" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="59">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="10">
         <v>6</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S6" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="T6" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="U6" s="59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T6" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1746,113 +1643,87 @@
         <v>124</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="H7" s="32">
+      <c r="G7" s="16"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="32">
         <v>4</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="J8" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O8" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q8" s="10">
         <v>6</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="60">
-        <v>5</v>
-      </c>
-      <c r="I8" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="61"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="59">
-        <v>6</v>
-      </c>
-      <c r="R8" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="S8" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="T8" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="U8" s="59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T8" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -1866,20 +1737,20 @@
         <v>124</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H9" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>20</v>
@@ -1889,11 +1760,9 @@
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>170</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="O9" s="9"/>
       <c r="P9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1901,19 +1770,19 @@
         <v>6</v>
       </c>
       <c r="R9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="T9" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -1927,85 +1796,109 @@
         <v>124</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
+      <c r="G10" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="32">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="N10" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="10"/>
-    </row>
-    <row r="11" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="P10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>6</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="59" t="s">
+      <c r="D11" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="32">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>6</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="60">
-        <v>7</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="59" t="s">
+      <c r="T11" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="59">
-        <v>6</v>
-      </c>
-      <c r="R11" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="S11" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="T11" s="59" t="s">
+      <c r="U11" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="U11" s="59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2015,58 +1908,30 @@
       <c r="C12" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>124</v>
+      <c r="D12" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="32">
-        <v>8</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>6</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2076,18 +1941,18 @@
       <c r="C13" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>124</v>
+      <c r="D13" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
         <v>177</v>
       </c>
       <c r="H13" s="32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
@@ -2103,7 +1968,7 @@
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9" t="s">
@@ -2113,78 +1978,78 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S13" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="T13" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U13" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="32">
+        <v>9</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>6</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="T14" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="60">
-        <v>10</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="K14" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="59">
-        <v>6</v>
-      </c>
-      <c r="R14" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="S14" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="T14" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="U14" s="59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U14" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2194,35 +2059,35 @@
       <c r="C15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>124</v>
+      <c r="D15" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="H15" s="32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="8"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9" t="s">
         <v>19</v>
@@ -2231,19 +2096,19 @@
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2254,53 +2119,29 @@
         <v>123</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H16" s="32">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>6</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2311,10 +2152,10 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16"/>
@@ -2333,66 +2174,66 @@
       <c r="T17" s="12"/>
       <c r="U17" s="10"/>
     </row>
-    <row r="18" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="H18" s="60">
-        <v>13</v>
-      </c>
-      <c r="I18" s="61" t="s">
+      <c r="D18" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="32">
+        <v>11</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="61" t="s">
+      <c r="J18" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="59">
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="10">
         <v>6</v>
       </c>
-      <c r="R18" s="59" t="s">
+      <c r="R18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S18" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="U18" s="59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T18" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2403,23 +2244,23 @@
         <v>123</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>133</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="H19" s="32">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2429,7 +2270,7 @@
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9" t="s">
@@ -2439,19 +2280,19 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S19" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="T19" s="12" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2462,23 +2303,21 @@
         <v>123</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>134</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E20" s="13"/>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="H20" s="32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="17" t="s">
-        <v>141</v>
+      <c r="J20" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2488,7 +2327,7 @@
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9" t="s">
@@ -2498,19 +2337,19 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="T20" s="12" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2521,34 +2360,32 @@
         <v>123</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>136</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H21" s="32">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>228</v>
+        <v>20</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>190</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N21" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2557,19 +2394,19 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2580,29 +2417,41 @@
         <v>123</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>136</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E22" s="13"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
+      <c r="G22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="32">
+        <v>15</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="P22" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="11"/>
       <c r="S22" s="10"/>
       <c r="T22" s="12"/>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2613,591 +2462,315 @@
         <v>123</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>137</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="6"/>
+      <c r="G23" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="32">
+        <v>16</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="10"/>
-    </row>
-    <row r="24" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="P23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>6</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="H24" s="60">
+      <c r="D24" s="15"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="32">
         <v>17</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="K24" s="61" t="s">
+      <c r="J24" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="61" t="s">
+      <c r="L24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="59">
+      <c r="M24" s="8"/>
+      <c r="N24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="10">
         <v>6</v>
       </c>
-      <c r="R24" s="59" t="s">
+      <c r="R24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S24" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="T24" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="U24" s="59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>138</v>
-      </c>
+      <c r="T24" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" s="32">
-        <v>18</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>6</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>134</v>
-      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="10"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="32">
-        <v>19</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N26" s="8"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>6</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="10"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="H27" s="32">
-        <v>20</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="N27" s="8"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="10">
-        <v>6</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="10"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="H28" s="32">
-        <v>21</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="N28" s="8"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="10">
-        <v>6</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="60">
-        <v>22</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="59">
-        <v>6</v>
-      </c>
-      <c r="R29" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="S29" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="T29" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="U29" s="59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="H30" s="60">
-        <v>23</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="K30" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="59">
-        <v>6</v>
-      </c>
-      <c r="R30" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="S30" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="T30" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="U30" s="59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="10"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A29" s="4"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="10"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A30" s="4"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="10"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A31" s="4"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="32">
-        <v>24</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="P31" s="9"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="11"/>
       <c r="S31" s="10"/>
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>200</v>
-      </c>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A32" s="4"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" s="32">
-        <v>25</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="N32" s="8"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>6</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="S32" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="U32" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="10"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A33" s="4"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="15"/>
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="H33" s="32">
-        <v>26</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="N33" s="8"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>6</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="10"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -3220,7 +2793,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3243,7 +2816,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3266,7 +2839,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3289,7 +2862,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3312,7 +2885,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3335,7 +2908,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3358,7 +2931,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3381,7 +2954,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3404,7 +2977,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3427,7 +3000,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3450,7 +3023,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3473,7 +3046,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3496,7 +3069,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3519,7 +3092,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3542,7 +3115,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3565,7 +3138,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3588,7 +3161,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3611,7 +3184,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3634,7 +3207,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3657,7 +3230,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3680,7 +3253,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3703,7 +3276,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3726,7 +3299,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3749,7 +3322,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3772,7 +3345,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3795,7 +3368,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3818,7 +3391,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3841,7 +3414,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3864,7 +3437,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3887,7 +3460,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3910,7 +3483,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -3933,7 +3506,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -3956,7 +3529,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -3979,7 +3552,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4002,7 +3575,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4025,7 +3598,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4048,7 +3621,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4071,7 +3644,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -4094,579 +3667,378 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="10"/>
-    </row>
-    <row r="74" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="10"/>
-    </row>
-    <row r="75" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="10"/>
-    </row>
-    <row r="76" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="10"/>
-    </row>
-    <row r="77" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="12"/>
-      <c r="U77" s="10"/>
-    </row>
-    <row r="78" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="10"/>
-    </row>
-    <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="12"/>
-      <c r="U79" s="10"/>
-    </row>
-    <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="10"/>
-    </row>
-    <row r="81" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="12"/>
-      <c r="U81" s="10"/>
-    </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="288" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="289" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="290" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="291" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="292" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="293" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="295" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <autoFilter ref="A1:U33">
+  <autoFilter ref="A1:U24">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4681,18 +4053,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O7" r:id="rId1"/>
-    <hyperlink ref="O9" r:id="rId2"/>
-    <hyperlink ref="O12" r:id="rId3"/>
-    <hyperlink ref="O16" r:id="rId4"/>
+    <hyperlink ref="O5" r:id="rId1"/>
+    <hyperlink ref="O6" r:id="rId2"/>
+    <hyperlink ref="O8" r:id="rId3"/>
+    <hyperlink ref="O11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -4703,37 +4069,37 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N34:N81 N3:N26</xm:sqref>
+          <xm:sqref>N25:N72 N3:N19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A34:A81 A3:A26</xm:sqref>
+          <xm:sqref>A25:A72 A3:A19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I34:I81 K34:K81 P34:P81 K3:K26 I3:I26 P3:P26</xm:sqref>
+          <xm:sqref>I25:I72 K25:K72 P25:P72 K3:K19 I3:I19 P3:P19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L34:L81 L3:L26</xm:sqref>
+          <xm:sqref>L25:L72 L3:L19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M34:M81 M3:M26</xm:sqref>
+          <xm:sqref>M25:M72 M3:M19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A27:A33 P27:P33 I27:I33 K27:N33</xm:sqref>
+          <xm:sqref>K20:N24 I20:I24 P20:P24 A20:A24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4749,27 +4115,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.86328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="2"/>
-    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="11.3984375" style="2"/>
+    <col min="14" max="14" width="24.265625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.86328125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4786,7 +4152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4810,7 +4176,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4829,7 +4195,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4848,7 +4214,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4864,7 +4230,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4881,7 +4247,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4898,7 +4264,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4913,7 +4279,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4928,7 +4294,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4943,7 +4309,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4958,7 +4324,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4973,7 +4339,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4988,7 +4354,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5003,7 +4369,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5018,7 +4384,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5033,7 +4399,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -5047,7 +4413,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -5061,7 +4427,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -5075,7 +4441,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -5089,7 +4455,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5104,7 +4470,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5119,7 +4485,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5134,7 +4500,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5149,7 +4515,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5164,7 +4530,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5179,7 +4545,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5194,7 +4560,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5209,7 +4575,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5224,7 +4590,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5239,7 +4605,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5254,7 +4620,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5269,7 +4635,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5284,7 +4650,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5299,7 +4665,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5314,7 +4680,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5329,7 +4695,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5344,7 +4710,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5359,7 +4725,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5374,7 +4740,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5389,7 +4755,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5404,7 +4770,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5419,7 +4785,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5434,7 +4800,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5449,7 +4815,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5464,7 +4830,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5479,7 +4845,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5494,7 +4860,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5509,7 +4875,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5521,7 +4887,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5533,7 +4899,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5546,7 +4912,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5559,7 +4925,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5572,7 +4938,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5585,7 +4951,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5598,7 +4964,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5611,7 +4977,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5624,7 +4990,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5637,7 +5003,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5650,7 +5016,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5663,7 +5029,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5676,7 +5042,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5689,7 +5055,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5702,7 +5068,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5715,7 +5081,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5728,7 +5094,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5741,7 +5107,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5754,7 +5120,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5767,7 +5133,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5780,7 +5146,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5793,7 +5159,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5807,7 +5173,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5821,7 +5187,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5835,7 +5201,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5849,7 +5215,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5863,7 +5229,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5877,7 +5243,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5891,7 +5257,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5905,7 +5271,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5919,7 +5285,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5933,7 +5299,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5947,7 +5313,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5961,7 +5327,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5975,7 +5341,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5989,7 +5355,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6003,7 +5369,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6017,7 +5383,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6031,7 +5397,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6045,7 +5411,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6059,7 +5425,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6073,7 +5439,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6087,7 +5453,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6101,7 +5467,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6115,7 +5481,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6129,7 +5495,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6143,7 +5509,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6157,7 +5523,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6171,7 +5537,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6185,7 +5551,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6199,7 +5565,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6213,7 +5579,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6227,7 +5593,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6241,7 +5607,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6255,7 +5621,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6269,7 +5635,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6283,7 +5649,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6297,7 +5663,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6311,7 +5677,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6325,7 +5691,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6339,7 +5705,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6353,7 +5719,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6367,7 +5733,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6381,7 +5747,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6395,7 +5761,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6409,7 +5775,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6423,7 +5789,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6437,7 +5803,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6451,7 +5817,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6465,7 +5831,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6479,7 +5845,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6493,7 +5859,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6507,7 +5873,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6521,7 +5887,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6535,7 +5901,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6549,7 +5915,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6563,7 +5929,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6577,7 +5943,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6591,7 +5957,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6605,7 +5971,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6619,7 +5985,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6633,7 +5999,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6647,7 +6013,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6661,7 +6027,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado11/guion16/Escaleta_CN_11_16_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion16/Escaleta_CN_11_16_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado11\guion16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -697,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,6 +776,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -833,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -907,16 +913,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,23 +982,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1298,126 +1321,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I3:I24"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" customWidth="1"/>
-    <col min="3" max="3" width="50.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.86328125" customWidth="1"/>
-    <col min="5" max="5" width="32.86328125" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.73046875" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="114.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.265625" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" customWidth="1"/>
-    <col min="13" max="14" width="9.265625" customWidth="1"/>
-    <col min="15" max="15" width="37.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.53125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.9296875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1328125" customWidth="1"/>
-    <col min="19" max="19" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.73046875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:21" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="42"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="44"/>
+    <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="28" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="38"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +1497,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1530,7 @@
       <c r="T4" s="12"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1568,7 +1591,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1629,7 +1652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1662,7 +1685,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1723,66 +1746,66 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="61">
         <v>5</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
+      <c r="M9" s="62"/>
+      <c r="N9" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9" t="s">
+      <c r="O9" s="60"/>
+      <c r="P9" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="60">
         <v>6</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" s="60" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -1841,7 +1864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -1898,7 +1921,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -1931,7 +1954,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -1990,7 +2013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2049,7 +2072,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2108,7 +2131,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2141,7 +2164,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="10"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2197,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="10"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2233,7 +2256,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2292,7 +2315,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2349,64 +2372,64 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="16" t="s">
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="61">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8" t="s">
+      <c r="M21" s="62"/>
+      <c r="N21" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9" t="s">
+      <c r="O21" s="60"/>
+      <c r="P21" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="60">
         <v>6</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="T21" s="12" t="s">
+      <c r="T21" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="60" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2451,7 +2474,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2508,7 +2531,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2563,7 +2586,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -2586,7 +2609,7 @@
       <c r="T25" s="12"/>
       <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -2609,7 +2632,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -2632,7 +2655,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -2655,7 +2678,7 @@
       <c r="T28" s="12"/>
       <c r="U28" s="10"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -2678,7 +2701,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="10"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -2701,7 +2724,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -2724,7 +2747,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -2747,7 +2770,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -2770,7 +2793,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -2793,7 +2816,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -2816,7 +2839,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -2839,7 +2862,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -2862,7 +2885,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -2885,7 +2908,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -2908,7 +2931,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -2931,7 +2954,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -2954,7 +2977,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -2977,7 +3000,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3000,7 +3023,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3023,7 +3046,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3046,7 +3069,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3069,7 +3092,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3092,7 +3115,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3115,7 +3138,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3138,7 +3161,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3161,7 +3184,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3184,7 +3207,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3207,7 +3230,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3230,7 +3253,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3253,7 +3276,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3276,7 +3299,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3299,7 +3322,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3322,7 +3345,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3345,7 +3368,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3368,7 +3391,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3391,7 +3414,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3414,7 +3437,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3437,7 +3460,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3460,7 +3483,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3483,7 +3506,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -3506,7 +3529,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -3529,7 +3552,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -3552,7 +3575,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -3575,7 +3598,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -3598,7 +3621,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -3621,7 +3644,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -3644,7 +3667,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -3667,378 +3690,372 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U24">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4053,6 +4070,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O5" r:id="rId1"/>
@@ -4115,27 +4138,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="2"/>
-    <col min="14" max="14" width="24.265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="2"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4152,7 +4175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4176,7 +4199,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4195,7 +4218,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4214,7 +4237,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4230,7 +4253,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4247,7 +4270,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4264,7 +4287,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4279,7 +4302,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4294,7 +4317,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4309,7 +4332,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4324,7 +4347,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4339,7 +4362,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4354,7 +4377,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4369,7 +4392,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4384,7 +4407,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4399,7 +4422,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4413,7 +4436,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -4427,7 +4450,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -4441,7 +4464,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -4455,7 +4478,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4470,7 +4493,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4485,7 +4508,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4500,7 +4523,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4515,7 +4538,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4530,7 +4553,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4545,7 +4568,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -4560,7 +4583,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -4575,7 +4598,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -4590,7 +4613,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4605,7 +4628,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -4620,7 +4643,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -4635,7 +4658,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -4650,7 +4673,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -4665,7 +4688,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -4680,7 +4703,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -4695,7 +4718,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4710,7 +4733,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4725,7 +4748,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4740,7 +4763,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -4755,7 +4778,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -4770,7 +4793,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -4785,7 +4808,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -4800,7 +4823,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -4815,7 +4838,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -4830,7 +4853,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -4845,7 +4868,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -4860,7 +4883,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -4875,7 +4898,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4887,7 +4910,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4899,7 +4922,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4912,7 +4935,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4925,7 +4948,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4938,7 +4961,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4951,7 +4974,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -4964,7 +4987,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4977,7 +5000,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4990,7 +5013,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5003,7 +5026,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5016,7 +5039,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5029,7 +5052,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5042,7 +5065,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5055,7 +5078,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5068,7 +5091,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5081,7 +5104,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5094,7 +5117,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5107,7 +5130,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5120,7 +5143,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5133,7 +5156,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5146,7 +5169,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5159,7 +5182,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5173,7 +5196,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5187,7 +5210,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5201,7 +5224,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5215,7 +5238,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5229,7 +5252,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5243,7 +5266,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5257,7 +5280,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5271,7 +5294,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5285,7 +5308,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5299,7 +5322,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5313,7 +5336,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5327,7 +5350,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5341,7 +5364,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5355,7 +5378,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5369,7 +5392,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5383,7 +5406,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5397,7 +5420,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5411,7 +5434,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5425,7 +5448,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5439,7 +5462,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5453,7 +5476,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5467,7 +5490,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5481,7 +5504,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5495,7 +5518,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5509,7 +5532,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5523,7 +5546,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5537,7 +5560,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5551,7 +5574,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5565,7 +5588,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5579,7 +5602,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5593,7 +5616,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5607,7 +5630,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5621,7 +5644,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5635,7 +5658,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5649,7 +5672,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5663,7 +5686,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5677,7 +5700,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5691,7 +5714,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5705,7 +5728,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5719,7 +5742,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5733,7 +5756,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5747,7 +5770,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5761,7 +5784,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5775,7 +5798,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5789,7 +5812,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5803,7 +5826,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5817,7 +5840,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5831,7 +5854,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5845,7 +5868,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5859,7 +5882,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5873,7 +5896,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5887,7 +5910,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5901,7 +5924,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5915,7 +5938,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5929,7 +5952,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5943,7 +5966,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5957,7 +5980,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5971,7 +5994,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5985,7 +6008,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5999,7 +6022,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6013,7 +6036,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6027,7 +6050,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
